--- a/data/trans_dic/P1435_2011_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1435_2011_2023-Estudios-trans_dic.xlsx
@@ -624,7 +624,7 @@
         <v>0.02408895881144072</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.07229946782649024</v>
+        <v>0.07229946782649026</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.002050193394757882</v>
+        <v>0.002029897332956174</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01451036499239657</v>
+        <v>0.01425155548277316</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02793997664319641</v>
+        <v>0.02798053909431226</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.09131712209799948</v>
+        <v>0.09057053276177794</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0186457310394032</v>
+        <v>0.0183084743747967</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0623299478459728</v>
+        <v>0.062193457603962</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01195136407064497</v>
+        <v>0.01160553058825004</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03954200229412808</v>
+        <v>0.0390707308479141</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05008521343544108</v>
+        <v>0.04915068813327743</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1244898842268215</v>
+        <v>0.1239417554731618</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03150632453224879</v>
+        <v>0.03152768160984895</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.08529807443742776</v>
+        <v>0.08442473841891833</v>
       </c>
     </row>
     <row r="7">
@@ -694,7 +694,7 @@
         <v>0.002446525517941066</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.01425001465947745</v>
+        <v>0.01425001465947746</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.03350979401758804</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0009555830283458179</v>
+        <v>0.0009539704933538481</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.009513638096932925</v>
+        <v>0.009460735674682643</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02569621841672438</v>
+        <v>0.02449931846150103</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0739109734645105</v>
+        <v>0.07434755079444355</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01285059819254814</v>
+        <v>0.01307668561071046</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04309544745219875</v>
+        <v>0.04302898581118121</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.005363135801477616</v>
+        <v>0.00548649397289975</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02144195138050925</v>
+        <v>0.02064445666773064</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04368292246495691</v>
+        <v>0.04349576167995935</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0942168400585089</v>
+        <v>0.09486746236374979</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02179753408163291</v>
+        <v>0.02188512303225095</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05513763764923699</v>
+        <v>0.05483536941592836</v>
       </c>
     </row>
     <row r="10">
@@ -782,13 +782,13 @@
         <v>0.03773588650011823</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.0836755242857514</v>
+        <v>0.08367552428575141</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.0195297178144376</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.05208925577740222</v>
+        <v>0.05208925577740221</v>
       </c>
     </row>
     <row r="11">
@@ -802,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01104418534358645</v>
+        <v>0.01199402147805708</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02184853207763681</v>
+        <v>0.02244280676214296</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06775874236514022</v>
+        <v>0.06815266989210102</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01198040572973949</v>
+        <v>0.01148157169573693</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04271951823287098</v>
+        <v>0.04322410637118671</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.011111065807813</v>
+        <v>0.008993437747151434</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03200457708893753</v>
+        <v>0.03260246535373357</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06045772834336112</v>
+        <v>0.06194235677885501</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1012269059248431</v>
+        <v>0.1027002730550118</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03302621717895136</v>
+        <v>0.03226213297407969</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06286278328642994</v>
+        <v>0.06293620783286083</v>
       </c>
     </row>
     <row r="13">
@@ -858,7 +858,7 @@
         <v>0.003220767738198485</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.01693540391750512</v>
+        <v>0.01693540391750513</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.03566248613057871</v>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.001485517688151176</v>
+        <v>0.001719593160827362</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01287730766284992</v>
+        <v>0.01301089412433901</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02998568220875951</v>
+        <v>0.02945680020489531</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0810272567878708</v>
+        <v>0.08210760564903537</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01658755201341165</v>
+        <v>0.01635245360225806</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04941081966667599</v>
+        <v>0.04970449131057172</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.005792527713806459</v>
+        <v>0.005573606427932252</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02233049068377432</v>
+        <v>0.02204290032931209</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04228534347370202</v>
+        <v>0.04232869061659833</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.09717978999769047</v>
+        <v>0.09809662649572712</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02347048724081623</v>
+        <v>0.02336108685380288</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05896746696242215</v>
+        <v>0.05924155413327135</v>
       </c>
     </row>
     <row r="16">
@@ -1108,22 +1108,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1998</v>
+        <v>1978</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>8380</v>
+        <v>8231</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>37378</v>
+        <v>37432</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>74936</v>
+        <v>74323</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>43117</v>
+        <v>42337</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>87147</v>
+        <v>86956</v>
       </c>
     </row>
     <row r="7">
@@ -1134,22 +1134,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>11648</v>
+        <v>11311</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>22837</v>
+        <v>22565</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>67004</v>
+        <v>65754</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>102157</v>
+        <v>101708</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>72856</v>
+        <v>72906</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>119260</v>
+        <v>118038</v>
       </c>
     </row>
     <row r="8">
@@ -1216,22 +1216,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1877</v>
+        <v>1874</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>21202</v>
+        <v>21084</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>45169</v>
+        <v>43065</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>160303</v>
+        <v>161250</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>47827</v>
+        <v>48668</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>189511</v>
+        <v>189219</v>
       </c>
     </row>
     <row r="11">
@@ -1242,22 +1242,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>10533</v>
+        <v>10775</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>47786</v>
+        <v>46008</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>76786</v>
+        <v>76457</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>204344</v>
+        <v>205755</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>81125</v>
+        <v>81451</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>242466</v>
+        <v>241137</v>
       </c>
     </row>
     <row r="12">
@@ -1327,19 +1327,19 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7859</v>
+        <v>8535</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>10020</v>
+        <v>10293</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>49651</v>
+        <v>49940</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>11259</v>
+        <v>10791</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>61702</v>
+        <v>62431</v>
       </c>
     </row>
     <row r="15">
@@ -1350,22 +1350,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5346</v>
+        <v>4327</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>22774</v>
+        <v>23199</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>27728</v>
+        <v>28409</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>74176</v>
+        <v>75255</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>31038</v>
+        <v>30320</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>90796</v>
+        <v>90902</v>
       </c>
     </row>
     <row r="16">
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5080</v>
+        <v>5881</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>45299</v>
+        <v>45769</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>106576</v>
+        <v>104696</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>301603</v>
+        <v>305624</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>115682</v>
+        <v>114042</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>357733</v>
+        <v>359859</v>
       </c>
     </row>
     <row r="19">
@@ -1458,22 +1458,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>19809</v>
+        <v>19061</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>78553</v>
+        <v>77541</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>150292</v>
+        <v>150446</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>361727</v>
+        <v>365139</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>163683</v>
+        <v>162921</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>426923</v>
+        <v>428907</v>
       </c>
     </row>
     <row r="20">
